--- a/DOWNLOADS/EDITAIS/U_791580_E_192025/U_791580_E_192025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_791580_E_192025/U_791580_E_192025_master.xlsx
@@ -43,7 +43,7 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Aeronave Remotamente Pilotada (Drone) com as seguintes características: Peso - 595 g Dimensões Dobrado:180 ×97 ×77 mm; Desdobrado:183 ×253 ×77 mm; Desdobrado com hélices:312 ×312 ×77 mm Voltagem11,55 V (bateria); 13,2 V (carregador) Capacidade de armazenamento 8 GB (expansível até 256 GB) Tipo de bateria LiPo 3S Capacidade3500 mAh (bateria) Compatibilidade - iOS e Android Voltagem de saída13,2 V (carregador) Voltagem de entrada 100-240 V; 50/60 Hz; 1,3 A (carregador) Tempo de carga - Aproximadamente 80 minutos (com um carregador USB PD de 30 W) Tipo de alimentação USB PD (carregador) Potência máxima de carregamento 38 W Conectividade - Wi-Fi Dual Band (2.4 GHz e 5.8 GHz); Bluetooth Low Energy (BLE) v4.0; OcuSync 3.0 (transmissão de vídeo em FHD a até 12 km) Faixa de temperatura de carga 5° a 40°C (bateria); 0° a 40°C (carregador) Tempo de voo - 31 minutos. Detecção de obstáculos Detecção de obstáculos em 4 direções Velocidade máxima 19 m/s (modo S); 15 m/s (modo N); 5 m/s (modo T) Resistência ao vento8,5-10,5 m/s Resolução da câmera20 MP Abertura da câmera f/2.8 Zoom da câmera - Zoom digital de 4x (sem perda de qualidade em 1080p/30 fps e 4K/30 fps); zoom digital de 6x (sem perda de qualidade em 2,7K/30 fps); zoom digital de 8x (sem perda de qualidade em 1080p/30 fps) Modos de voo inteligente - MasterShot, FocusTrack, QuickShots, Hyperlapse e Panorâmica SensorCMOS de 1 Lente FOV 88°; distância focal equivalente a 22 mm; autofoco de 0,6 m a ∞ Obturador - Obturador eletrônico e mecânico Alcance ISOVídeo: 100 - 6400; Foto: 100 - 12800 (automático); Foto: 100 - 3200 (manual) Modo de fotografia - Single Shot; Burst Shooting; Auto Exposure Bracketing (AEB); Timed Shot; SmartPhoto; HyperLight; HDR; Panorâmica em HDR; Hyperlapse em RAW Formatos de vídeo/fotoMP4/MOV (H.264/MPEG-4 AVC, H.265/HEVC); JPEG/DNG (RAW) Alcance mecânico Inclinação - 135° a +45°; Rotação -45° a +45° Mecanismo do gimbal - Gimbal mecânico de três eixos (inclinação, rotação e panorâmica) Tendo como modelo de referência: Drone Dji Air 2s Fly More Combo</t>
+    <t>Aeronave Remotamente Pilotada (Drone) com as seguintes características: Peso - 595 g Dimensões Dobrado:180 ×97 ×77 mm; Desdobrado:183 ×253 ×77 mm; Desdobrado com hélices:312 ×312 ×77 mm; Voltagem 11,55 V (bateria); 13,2 V (carregador); Capacidade de armazenamento 8 GB (expansível até 256 GB); Tipo de bateria LiPo 3S; Capacidade 3500 mAh (bateria); Compatibilidade - iOS e Android Voltagem de saída 13,2 V (carregador) Voltagem de entrada 100-240 V; 50/60 Hz; 1,3 A (carregador); Tempo de carga - Aproximadamente 80 minutos (com um carregador USB PD de 30 W); Tipo de alimentação USB PD (carregador); Potência máxima de carregamento 38 W; Conectividade - Wi-Fi Dual Band (2.4 GHz e 5.8 GHz); Bluetooth Low Energy (BLE) v4.0; OcuSync 3.0 (transmissão de vídeo em FHD a até 12 km); Faixa de temperatura de carga 5° a 40°C (bateria); 0° a 40°C (carregador); Tempo de voo - 31 minutos; Detecção de obstáculos; Detecção de obstáculos em 4 direções; Velocidade máxima 19 m/s (modo S); 15 m/s (modo N); 5 m/s (modo T); Resistência ao vento 8,5-10,5 m/s; Resolução da câmera 20 MP; Abertura da câmera f/2.8; Zoom da câmera - Zoom digital de 4x (sem perda de qualidade em 1080p/30 fps e 4K/30 fps); zoom digital de 6x (sem perda de qualidade em 2,7K/30 fps); zoom digital de 8x (sem perda de qualidade em 1080p/30 fps); Modos de voo inteligente - MasterShot, FocusTrack, QuickShots, Hyperlapse e Panorâmica; Sensor CMOS de 1 Lente FOV 88°; distância focal equivalente a 22 mm; autofoco de 0,6 m a ∞; Obturador - Obturador eletrônico e mecânico Alcance ISOVídeo: 100 - 6400; Foto: 100 - 12800 (automático); Foto: 100 - 3200 (manual); Modo de fotografia - Single Shot; Burst Shooting; Auto Exposure Bracketing (AEB); Timed Shot; SmartPhoto; HyperLight; HDR; Panorâmica em HDR; Hyperlapse em RAW; Formatos de vídeo/foto MP4/MOV (H.264/MPEG-4 AVC, H.265/HEVC); JPEG/DNG (RAW); Alcance mecânico Inclinação - 135° a +45°; Rotação -45° a +45°; Mecanismo do gimbal - Gimbal mecânico de três eixos (inclinação, rotação e panorâmica); Tendo como modelo de referência: Drone Dji Air 2s Fly More Combo;</t>
   </si>
   <si>
     <t>U_791580_E_192025</t>
@@ -452,6 +452,12 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>11594</v>
+      </c>
+      <c r="F2">
+        <v>11594</v>
+      </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
